--- a/common/CardBreach.xlsx
+++ b/common/CardBreach.xlsx
@@ -38,7 +38,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">stage </t>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -54,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">name </t>
     </r>
     <r>
@@ -70,6 +77,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">max_card_lv </t>
     </r>
     <r>
@@ -86,6 +100,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">max_aptitude_lv </t>
     </r>
     <r>
@@ -102,6 +123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">max_skill_lv </t>
     </r>
     <r>
@@ -118,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">breach_need_item </t>
     </r>
     <r>
@@ -134,6 +169,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">frame_path </t>
     </r>
     <r>
@@ -195,8 +237,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -220,6 +262,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -228,6 +293,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,6 +330,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,115 +384,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +414,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,187 +435,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,31 +638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +668,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,133 +755,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,7 +1228,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1206,7 +1242,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/common/CardBreach.xlsx
+++ b/common/CardBreach.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>阶段</t>
   </si>
@@ -38,6 +38,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -237,8 +244,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -262,9 +269,70 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +347,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -286,76 +368,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,40 +398,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,181 +442,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +645,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -653,35 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,17 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,11 +721,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,12 +1230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1290,7 +1297,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1310,7 +1317,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -1330,7 +1337,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1350,7 +1357,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -1370,7 +1377,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1390,7 +1397,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1410,7 +1417,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
